--- a/public/excel/Template Upload Opnam.xlsx
+++ b/public/excel/Template Upload Opnam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="9">
   <si>
     <t>No</t>
   </si>
@@ -379,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -433,6 +433,2246 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>55</v>
+      </c>
+      <c r="F3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>55</v>
+      </c>
+      <c r="F4">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>55</v>
+      </c>
+      <c r="F5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>55</v>
+      </c>
+      <c r="F6">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>55</v>
+      </c>
+      <c r="F7">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>55</v>
+      </c>
+      <c r="F8">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>55</v>
+      </c>
+      <c r="F9">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>55</v>
+      </c>
+      <c r="F10">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>55</v>
+      </c>
+      <c r="F11">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>55</v>
+      </c>
+      <c r="F12">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>55</v>
+      </c>
+      <c r="F13">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>55</v>
+      </c>
+      <c r="F14">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>55</v>
+      </c>
+      <c r="F15">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>55</v>
+      </c>
+      <c r="F16">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>55</v>
+      </c>
+      <c r="F17">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>55</v>
+      </c>
+      <c r="F18">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>55</v>
+      </c>
+      <c r="F19">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>55</v>
+      </c>
+      <c r="F20">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>55</v>
+      </c>
+      <c r="F21">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>55</v>
+      </c>
+      <c r="F22">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>55</v>
+      </c>
+      <c r="F23">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>55</v>
+      </c>
+      <c r="F24">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>55</v>
+      </c>
+      <c r="F25">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>55</v>
+      </c>
+      <c r="F26">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>55</v>
+      </c>
+      <c r="F27">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>55</v>
+      </c>
+      <c r="F28">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>55</v>
+      </c>
+      <c r="F29">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>55</v>
+      </c>
+      <c r="F30">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>55</v>
+      </c>
+      <c r="F31">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>55</v>
+      </c>
+      <c r="F32">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>55</v>
+      </c>
+      <c r="F33">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>55</v>
+      </c>
+      <c r="F34">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>55</v>
+      </c>
+      <c r="F35">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>55</v>
+      </c>
+      <c r="F36">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>55</v>
+      </c>
+      <c r="F37">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>55</v>
+      </c>
+      <c r="F38">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39">
+        <v>55</v>
+      </c>
+      <c r="F39">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <v>55</v>
+      </c>
+      <c r="F40">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>55</v>
+      </c>
+      <c r="F41">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>55</v>
+      </c>
+      <c r="F42">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>55</v>
+      </c>
+      <c r="F43">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <v>55</v>
+      </c>
+      <c r="F44">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>55</v>
+      </c>
+      <c r="F45">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>55</v>
+      </c>
+      <c r="F46">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>55</v>
+      </c>
+      <c r="F47">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48">
+        <v>55</v>
+      </c>
+      <c r="F48">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49">
+        <v>55</v>
+      </c>
+      <c r="F49">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50">
+        <v>55</v>
+      </c>
+      <c r="F50">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51">
+        <v>55</v>
+      </c>
+      <c r="F51">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52">
+        <v>55</v>
+      </c>
+      <c r="F52">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53">
+        <v>55</v>
+      </c>
+      <c r="F53">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54">
+        <v>55</v>
+      </c>
+      <c r="F54">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>55</v>
+      </c>
+      <c r="F55">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56">
+        <v>55</v>
+      </c>
+      <c r="F56">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57">
+        <v>55</v>
+      </c>
+      <c r="F57">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58">
+        <v>55</v>
+      </c>
+      <c r="F58">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59">
+        <v>55</v>
+      </c>
+      <c r="F59">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60">
+        <v>55</v>
+      </c>
+      <c r="F60">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61">
+        <v>55</v>
+      </c>
+      <c r="F61">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62">
+        <v>55</v>
+      </c>
+      <c r="F62">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63">
+        <v>55</v>
+      </c>
+      <c r="F63">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64">
+        <v>55</v>
+      </c>
+      <c r="F64">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65">
+        <v>55</v>
+      </c>
+      <c r="F65">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66">
+        <v>55</v>
+      </c>
+      <c r="F66">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67">
+        <v>55</v>
+      </c>
+      <c r="F67">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68">
+        <v>55</v>
+      </c>
+      <c r="F68">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69">
+        <v>55</v>
+      </c>
+      <c r="F69">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70">
+        <v>55</v>
+      </c>
+      <c r="F70">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71">
+        <v>55</v>
+      </c>
+      <c r="F71">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72">
+        <v>55</v>
+      </c>
+      <c r="F72">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73">
+        <v>55</v>
+      </c>
+      <c r="F73">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74">
+        <v>55</v>
+      </c>
+      <c r="F74">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75">
+        <v>55</v>
+      </c>
+      <c r="F75">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76">
+        <v>55</v>
+      </c>
+      <c r="F76">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77">
+        <v>55</v>
+      </c>
+      <c r="F77">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78">
+        <v>55</v>
+      </c>
+      <c r="F78">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79">
+        <v>55</v>
+      </c>
+      <c r="F79">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80">
+        <v>55</v>
+      </c>
+      <c r="F80">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81">
+        <v>55</v>
+      </c>
+      <c r="F81">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82">
+        <v>55</v>
+      </c>
+      <c r="F82">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83">
+        <v>55</v>
+      </c>
+      <c r="F83">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84">
+        <v>55</v>
+      </c>
+      <c r="F84">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85">
+        <v>55</v>
+      </c>
+      <c r="F85">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86">
+        <v>55</v>
+      </c>
+      <c r="F86">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87">
+        <v>55</v>
+      </c>
+      <c r="F87">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88">
+        <v>55</v>
+      </c>
+      <c r="F88">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89">
+        <v>55</v>
+      </c>
+      <c r="F89">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90">
+        <v>55</v>
+      </c>
+      <c r="F90">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91">
+        <v>55</v>
+      </c>
+      <c r="F91">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92">
+        <v>55</v>
+      </c>
+      <c r="F92">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93">
+        <v>55</v>
+      </c>
+      <c r="F93">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94">
+        <v>55</v>
+      </c>
+      <c r="F94">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95">
+        <v>55</v>
+      </c>
+      <c r="F95">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" t="s">
+        <v>6</v>
+      </c>
+      <c r="E96">
+        <v>55</v>
+      </c>
+      <c r="F96">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97">
+        <v>55</v>
+      </c>
+      <c r="F97">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98">
+        <v>55</v>
+      </c>
+      <c r="F98">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99">
+        <v>55</v>
+      </c>
+      <c r="F99">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100">
+        <v>55</v>
+      </c>
+      <c r="F100">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101">
+        <v>55</v>
+      </c>
+      <c r="F101">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102">
+        <v>55</v>
+      </c>
+      <c r="F102">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103">
+        <v>55</v>
+      </c>
+      <c r="F103">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104">
+        <v>55</v>
+      </c>
+      <c r="F104">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105">
+        <v>55</v>
+      </c>
+      <c r="F105">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106">
+        <v>55</v>
+      </c>
+      <c r="F106">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107">
+        <v>55</v>
+      </c>
+      <c r="F107">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108">
+        <v>55</v>
+      </c>
+      <c r="F108">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109">
+        <v>55</v>
+      </c>
+      <c r="F109">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110">
+        <v>55</v>
+      </c>
+      <c r="F110">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111">
+        <v>55</v>
+      </c>
+      <c r="F111">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112">
+        <v>55</v>
+      </c>
+      <c r="F112">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113">
+        <v>55</v>
+      </c>
+      <c r="F113">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114">
+        <v>55</v>
+      </c>
+      <c r="F114">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/excel/Template Upload Opnam.xlsx
+++ b/public/excel/Template Upload Opnam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>No</t>
   </si>
@@ -34,23 +34,41 @@
     <t>Harga Satuan</t>
   </si>
   <si>
-    <t>OIL ENGINE SAE 15W-40</t>
-  </si>
-  <si>
-    <t>LITER</t>
+    <t>PCS</t>
+  </si>
+  <si>
+    <t>TEST123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing Opnam </t>
+  </si>
+  <si>
+    <t>01023-50622</t>
+  </si>
+  <si>
+    <t>BOLT, SEMS</t>
+  </si>
+  <si>
+    <t>Pcs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -79,38 +97,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -400,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -438,26 +434,43 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>700006</v>
+      <c r="B2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F2">
-        <v>36769</v>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>15000</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/excel/Template Upload Opnam.xlsx
+++ b/public/excel/Template Upload Opnam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>No</t>
   </si>
@@ -34,19 +34,10 @@
     <t>Harga Satuan</t>
   </si>
   <si>
-    <t>PCS</t>
-  </si>
-  <si>
-    <t>TEST123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing Opnam </t>
-  </si>
-  <si>
-    <t>01023-50622</t>
-  </si>
-  <si>
-    <t>BOLT, SEMS</t>
+    <t>967120Z000</t>
+  </si>
+  <si>
+    <t>HINGE LH</t>
   </si>
   <si>
     <t>Pcs</t>
@@ -97,10 +88,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -396,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -430,47 +420,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
         <v>15000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/excel/Template Upload Opnam.xlsx
+++ b/public/excel/Template Upload Opnam.xlsx
@@ -389,7 +389,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -434,7 +434,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F2">
         <v>15000</v>
